--- a/src/digitalmodel/data/slings/MIS-ProductSheets_twinPathSlings.xlsx
+++ b/src/digitalmodel/data/slings/MIS-ProductSheets_twinPathSlings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ss7a2365\Documents\github\digitalmodel\src\digitalmodel\data\slings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4365C38-18CC-4B50-9708-A60D914D14D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3551173-289B-42CF-B07B-210E97E811DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB5A485A-87BB-4971-B786-30017D29655F}"/>
   </bookViews>
@@ -36,33 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>vertical</t>
-  </si>
-  <si>
-    <t>choker</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>w_lb_per_ft</t>
-  </si>
-  <si>
-    <t>vertical_basket_90_deg</t>
-  </si>
-  <si>
-    <t>basket_hitnges_60_deg</t>
-  </si>
-  <si>
-    <t>basket_hitnges_45_deg</t>
   </si>
   <si>
     <t>min_width_in</t>
   </si>
   <si>
     <t>max_width_in</t>
+  </si>
+  <si>
+    <t>design_factor</t>
+  </si>
+  <si>
+    <t>vertical_lb</t>
+  </si>
+  <si>
+    <t>choker_lb</t>
+  </si>
+  <si>
+    <t>vertical_basket_90_deg_lb</t>
+  </si>
+  <si>
+    <t>basket_hitnges_60_deg_lb</t>
+  </si>
+  <si>
+    <t>basket_hitnges_45_deg_lb</t>
+  </si>
+  <si>
+    <t>part_number</t>
   </si>
 </sst>
 </file>
@@ -425,9 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC7F1B9-3651-47B4-ABF2-63347E010EF2}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -437,33 +438,35 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -501,7 +504,9 @@
       <c r="I2" s="3">
         <v>3</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <v>5</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -539,7 +544,9 @@
       <c r="I3" s="3">
         <v>3</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -577,7 +584,9 @@
       <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -615,7 +624,9 @@
       <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -653,7 +664,9 @@
       <c r="I6" s="3">
         <v>4</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -691,7 +704,9 @@
       <c r="I7" s="3">
         <v>4</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -729,7 +744,9 @@
       <c r="I8" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -767,7 +784,9 @@
       <c r="I9" s="3">
         <v>5</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -805,7 +824,9 @@
       <c r="I10" s="3">
         <v>5</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -843,7 +864,9 @@
       <c r="I11" s="3">
         <v>6</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -881,7 +904,9 @@
       <c r="I12" s="3">
         <v>6</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>5</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -919,7 +944,9 @@
       <c r="I13" s="3">
         <v>8</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>5</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -957,7 +984,9 @@
       <c r="I14" s="3">
         <v>8</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>5</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -995,7 +1024,9 @@
       <c r="I15" s="3">
         <v>8</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>5</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1033,7 +1064,9 @@
       <c r="I16" s="3">
         <v>10</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1071,7 +1104,9 @@
       <c r="I17" s="3">
         <v>10</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1109,6 +1144,9 @@
       <c r="I18" s="3">
         <v>12</v>
       </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1138,6 +1176,9 @@
       <c r="I19" s="3">
         <v>12</v>
       </c>
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1167,6 +1208,9 @@
       <c r="I20" s="3">
         <v>14</v>
       </c>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1196,6 +1240,9 @@
       <c r="I21" s="3">
         <v>14</v>
       </c>
+      <c r="J21" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1224,6 +1271,9 @@
       </c>
       <c r="I22" s="3">
         <v>22</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
